--- a/備忘録.xlsx
+++ b/備忘録.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FT\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA590F4D-F80C-400C-A47E-A8E3F5E5D63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9663674C-DD3A-4CAC-A1E9-4E90BB0B0C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="360" windowWidth="18330" windowHeight="14460" xr2:uid="{98FDC399-95F1-4B2B-BE50-AA13A31EF818}"/>
+    <workbookView xWindow="4965" yWindow="135" windowWidth="20745" windowHeight="15210" xr2:uid="{98FDC399-95F1-4B2B-BE50-AA13A31EF818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>コンソール出力</t>
     <rPh sb="5" eb="7">
@@ -120,6 +120,19 @@
     </rPh>
     <rPh sb="66" eb="68">
       <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FT5上ではUTF-8で文字を扱っている</t>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -506,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5076A463-BDEC-431B-90F1-3B896D24BB7A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -548,6 +561,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
